--- a/Dokumentation/Test Telemetry.xlsx
+++ b/Dokumentation/Test Telemetry.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10300" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="47880" windowHeight="16520" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Naza V1-V2" sheetId="1" r:id="rId1"/>
     <sheet name="Phantom" sheetId="2" r:id="rId2"/>
     <sheet name="Wookong" sheetId="3" r:id="rId3"/>
     <sheet name="A2" sheetId="4" r:id="rId4"/>
+    <sheet name="Blatt1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>Wert</t>
   </si>
@@ -726,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1178,7 +1179,9 @@
       <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1395,4 +1398,112 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <f>A1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <f>(B1+A2)/2</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B17" si="0">(B2+A3)/2</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>76.8125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>99.90625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>521</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>310.453125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>169.7265625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f>SUM(A1:A8)/8</f>
+        <v>110.75</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>140.23828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>70.119140625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Dokumentation/Test Telemetry.xlsx
+++ b/Dokumentation/Test Telemetry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="47880" windowHeight="16520" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-28800" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Naza V1-V2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>Wert</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>SensorData</t>
-  </si>
-  <si>
     <t>Logging</t>
   </si>
   <si>
@@ -233,6 +230,24 @@
   </si>
   <si>
     <t>Output for Motors</t>
+  </si>
+  <si>
+    <t>Konfiguration</t>
+  </si>
+  <si>
+    <t>Naza</t>
+  </si>
+  <si>
+    <t>Wookong</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Pixhawk</t>
+  </si>
+  <si>
+    <t>Phantom 2</t>
   </si>
 </sst>
 </file>
@@ -281,8 +296,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,7 +331,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -327,6 +344,7 @@
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -339,9 +357,26 @@
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -376,6 +411,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
@@ -384,20 +423,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:K32" totalsRowShown="0">
-  <autoFilter ref="A1:K32"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:P32" totalsRowShown="0">
+  <autoFilter ref="A1:P32"/>
+  <tableColumns count="16">
     <tableColumn id="1" name="Wert"/>
     <tableColumn id="2" name="Bezeichnung"/>
-    <tableColumn id="3" name="SensorData" dataDxfId="8"/>
-    <tableColumn id="4" name="Logging" dataDxfId="7"/>
-    <tableColumn id="5" name="MAVLink" dataDxfId="6"/>
-    <tableColumn id="6" name="FrSky" dataDxfId="5"/>
-    <tableColumn id="7" name="Graupner" dataDxfId="4"/>
-    <tableColumn id="8" name="Futaba" dataDxfId="3"/>
-    <tableColumn id="9" name="Jeti" dataDxfId="2"/>
-    <tableColumn id="10" name="Spektrum" dataDxfId="1"/>
-    <tableColumn id="11" name="Multiplex" dataDxfId="0"/>
+    <tableColumn id="3" name="Naza" dataDxfId="13"/>
+    <tableColumn id="13" name="Phantom 2" dataDxfId="3"/>
+    <tableColumn id="14" name="Wookong" dataDxfId="2"/>
+    <tableColumn id="15" name="A2" dataDxfId="1"/>
+    <tableColumn id="16" name="Pixhawk" dataDxfId="0"/>
+    <tableColumn id="12" name="Konfiguration" dataDxfId="12"/>
+    <tableColumn id="4" name="Logging" dataDxfId="11"/>
+    <tableColumn id="5" name="MAVLink" dataDxfId="10"/>
+    <tableColumn id="6" name="FrSky" dataDxfId="9"/>
+    <tableColumn id="7" name="Graupner" dataDxfId="8"/>
+    <tableColumn id="8" name="Futaba" dataDxfId="7"/>
+    <tableColumn id="9" name="Jeti" dataDxfId="6"/>
+    <tableColumn id="10" name="Spektrum" dataDxfId="5"/>
+    <tableColumn id="11" name="Multiplex" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -736,12 +780,14 @@
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,158 +795,237 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -908,94 +1033,143 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1003,148 +1177,228 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1152,54 +1406,81 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1207,16 +1488,23 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1224,33 +1512,49 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1258,30 +1562,44 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1292,13 +1610,20 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1306,10 +1631,15 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1320,10 +1650,15 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1334,6 +1669,11 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1404,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B17" si="0">(B2+A3)/2</f>
+        <f t="shared" ref="B3:B10" si="0">(B2+A3)/2</f>
         <v>16.25</v>
       </c>
     </row>
